--- a/Doc/Register/MCU_Reg.xlsx
+++ b/Doc/Register/MCU_Reg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Fiti_fw\Tcon\FA8801\Doc\Register\Register\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Fiti_fw\Tcon\FA8801\Doc\Register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A9FB33-EB86-494F-A868-E0B451BF43F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0DB418-8938-4351-A026-FF6E6302B704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="25396" windowHeight="15346" tabRatio="761" activeTab="7" xr2:uid="{6AD96D85-A397-4454-B74F-53BB4C94641A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="25396" windowHeight="15346" tabRatio="761" xr2:uid="{6AD96D85-A397-4454-B74F-53BB4C94641A}"/>
   </bookViews>
   <sheets>
     <sheet name="ARM Register Map" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="880">
   <si>
     <t>REGISTER</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2453,10 +2453,6 @@
   </si>
   <si>
     <t>GPIOx_CTRL_13(Base_Adr + 0x38)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Peripherals</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4671,10 +4667,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BootLoader</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0x0000_8000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6435,6 +6427,26 @@
   </si>
   <si>
     <t>CCR : Clock control register in each speed mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M4F BootLoader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APB Peripherals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AHB Peripherals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x4FFF_FFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x5000_0000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6888,7 +6900,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6960,6 +6972,39 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7105,38 +7150,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7144,11 +7162,8 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13109,10 +13124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71479484-08DB-434F-8849-D0D6535F4811}">
-  <dimension ref="B1:U39"/>
+  <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.45"/>
@@ -13124,758 +13139,777 @@
     <col min="14" max="16384" width="9.06640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
       <c r="E1" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="I1" s="85" t="s">
+        <v>756</v>
+      </c>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="P1" s="46" t="s">
+        <v>755</v>
+      </c>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B2" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="I2" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="P2" s="35" t="s">
+        <v>744</v>
+      </c>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="16" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="I1" s="35" t="s">
-        <v>758</v>
-      </c>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="P1" s="35" t="s">
-        <v>757</v>
-      </c>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-    </row>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B2" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="I2" s="24" t="s">
+      <c r="I3" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="16" t="s">
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="P2" s="24" t="s">
-        <v>746</v>
-      </c>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="16" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>300</v>
-      </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="P3" s="24" t="s">
-        <v>747</v>
-      </c>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
+      <c r="P3" s="35" t="s">
+        <v>745</v>
+      </c>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
       <c r="T3" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B4" s="36" t="s">
-        <v>735</v>
-      </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A4" s="87"/>
+      <c r="B4" s="47" t="s">
+        <v>734</v>
+      </c>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
       <c r="E4" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>301</v>
-      </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
+        <v>265</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
       <c r="M4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="24" t="s">
-        <v>754</v>
-      </c>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
+      <c r="P4" s="35" t="s">
+        <v>752</v>
+      </c>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
       <c r="T4" s="16" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A5" s="87"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>302</v>
-      </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
+        <v>266</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>301</v>
+      </c>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
       <c r="M5" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="P5" s="24" t="s">
-        <v>748</v>
-      </c>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
+        <v>279</v>
+      </c>
+      <c r="P5" s="35" t="s">
+        <v>746</v>
+      </c>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
       <c r="T5" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B6" s="26" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B6" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="I6" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="P6" s="35" t="s">
+        <v>747</v>
+      </c>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="16" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B7" s="40"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="42"/>
+      <c r="I7" s="35" t="s">
         <v>303</v>
       </c>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="16" t="s">
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="P6" s="24" t="s">
-        <v>749</v>
-      </c>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="16" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B7" s="29"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="31"/>
-      <c r="I7" s="24" t="s">
-        <v>304</v>
-      </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="P7" s="24" t="s">
-        <v>750</v>
-      </c>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
+      <c r="P7" s="35" t="s">
+        <v>748</v>
+      </c>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
       <c r="T7" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B8" s="32"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34"/>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="I8" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="P8" s="35" t="s">
+        <v>753</v>
+      </c>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="5" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B9" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="C9" s="49"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="I9" s="35" t="s">
         <v>305</v>
       </c>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="P8" s="24" t="s">
-        <v>755</v>
-      </c>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="5" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B9" s="37" t="s">
-        <v>339</v>
-      </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>306</v>
-      </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
       <c r="M9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="P9" s="24" t="s">
-        <v>756</v>
-      </c>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
+      <c r="P9" s="35" t="s">
+        <v>754</v>
+      </c>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
       <c r="T9" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B10" s="40"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="42"/>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B10" s="51"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="53"/>
       <c r="E10" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="I10" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B11" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="I11" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="16" t="s">
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="16" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B11" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="I11" s="24" t="s">
+      <c r="P11" s="35" t="s">
+        <v>763</v>
+      </c>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="16" t="s">
+        <v>760</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="I12" s="35" t="s">
         <v>308</v>
       </c>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="16" t="s">
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="P11" s="24" t="s">
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B13" s="40"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="I13" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="16" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B14" s="43"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="5" t="s">
         <v>765</v>
       </c>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="16" t="s">
-        <v>762</v>
-      </c>
-      <c r="U11" s="5" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="I12" s="24" t="s">
-        <v>309</v>
-      </c>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="16" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
-      <c r="I13" s="24" t="s">
+      <c r="I14" s="35" t="s">
         <v>310</v>
       </c>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="16" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="5" t="s">
-        <v>767</v>
-      </c>
-      <c r="I14" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
       <c r="M14" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B15" s="25" t="s">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B15" s="36" t="s">
+        <v>762</v>
+      </c>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="5" t="s">
         <v>764</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="5" t="s">
-        <v>766</v>
-      </c>
-      <c r="I15" s="24" t="s">
+      <c r="I15" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="16" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="I16" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="16" t="s">
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="16" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="I16" s="24" t="s">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="I17" s="35" t="s">
         <v>313</v>
       </c>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="16" t="s">
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="16" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="5" t="s">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B18" s="46" t="s">
+        <v>877</v>
+      </c>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="I17" s="24" t="s">
+      <c r="I18" s="35" t="s">
         <v>314</v>
       </c>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="16" t="s">
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="16" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B18" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="I18" s="24" t="s">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="I19" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="16" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="I19" s="24" t="s">
-        <v>316</v>
-      </c>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
       <c r="M19" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="85" t="s">
+        <v>876</v>
+      </c>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="I20" s="35" t="s">
+        <v>316</v>
+      </c>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="16" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="I21" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="16" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B22" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="I20" s="24" t="s">
-        <v>317</v>
-      </c>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="16" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31"/>
-      <c r="I21" s="24" t="s">
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="I22" s="35" t="s">
         <v>318</v>
       </c>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="16" t="s">
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="16" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B22" s="29"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="5" t="s">
-        <v>768</v>
-      </c>
-      <c r="I22" s="24" t="s">
+    <row r="23" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="40"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="42"/>
+      <c r="I23" s="35" t="s">
         <v>319</v>
       </c>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="16" t="s">
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="16" t="s">
         <v>323</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="37" t="s">
-        <v>770</v>
-      </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="23" t="s">
-        <v>769</v>
-      </c>
-      <c r="I23" s="24" t="s">
-        <v>320</v>
-      </c>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="16" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B24" s="40"/>
       <c r="C24" s="41"/>
       <c r="D24" s="42"/>
-      <c r="E24" s="23" t="s">
-        <v>745</v>
-      </c>
-      <c r="I24" s="24" t="s">
-        <v>325</v>
-      </c>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
+      <c r="E24" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="I24" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
       <c r="M24" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B25" s="37" t="s">
-        <v>744</v>
-      </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="39"/>
+      <c r="B25" s="48" t="s">
+        <v>768</v>
+      </c>
+      <c r="C25" s="49"/>
+      <c r="D25" s="50"/>
       <c r="E25" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="I25" s="24" t="s">
-        <v>326</v>
-      </c>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
+        <v>767</v>
+      </c>
+      <c r="I25" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
       <c r="M25" s="16" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="51"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="23" t="s">
+        <v>743</v>
+      </c>
+      <c r="I26" s="35" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="44"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="46"/>
-      <c r="I26" s="24" t="s">
-        <v>344</v>
-      </c>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
       <c r="M26" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B27" s="40"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="I27" s="24" t="s">
-        <v>345</v>
-      </c>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
+      <c r="B27" s="48" t="s">
+        <v>742</v>
+      </c>
+      <c r="C27" s="49"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="23" t="s">
+        <v>757</v>
+      </c>
+      <c r="I27" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
       <c r="M27" s="16" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B28" s="24" t="s">
-        <v>743</v>
-      </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="I28" s="24" t="s">
-        <v>347</v>
-      </c>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="57"/>
+      <c r="I28" s="35" t="s">
+        <v>346</v>
+      </c>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
       <c r="M28" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="I29" s="24" t="s">
+      <c r="B29" s="51"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="I29" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="16" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B30" s="35" t="s">
+        <v>741</v>
+      </c>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="I30" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="16" t="s">
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="16" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="5" t="s">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="I31" s="35" t="s">
+        <v>330</v>
+      </c>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="16" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="I32" s="35" t="s">
+        <v>331</v>
+      </c>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="16" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B33" s="58" t="s">
+        <v>735</v>
+      </c>
+      <c r="C33" s="59"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="I30" s="24" t="s">
-        <v>328</v>
-      </c>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="16" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B31" s="47" t="s">
-        <v>736</v>
-      </c>
-      <c r="C31" s="48"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="I31" s="24" t="s">
-        <v>331</v>
-      </c>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="16" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B32" s="50"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="52"/>
-      <c r="I32" s="24" t="s">
-        <v>332</v>
-      </c>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="16" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B33" s="53"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="5" t="s">
-        <v>738</v>
-      </c>
-      <c r="I33" s="24" t="s">
-        <v>761</v>
-      </c>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
+      <c r="I33" s="35" t="s">
+        <v>759</v>
+      </c>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
       <c r="M33" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="61"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="63"/>
+      <c r="I34" s="35" t="s">
+        <v>334</v>
+      </c>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B35" s="64"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="5" t="s">
         <v>737</v>
       </c>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="23" t="s">
+      <c r="I35" s="35" t="s">
+        <v>335</v>
+      </c>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B36" s="47" t="s">
+        <v>736</v>
+      </c>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="23" t="s">
+        <v>738</v>
+      </c>
+      <c r="I36" s="35" t="s">
+        <v>332</v>
+      </c>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="I37" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="16" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="I38" s="35" t="s">
+        <v>336</v>
+      </c>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B39" s="35" t="s">
+        <v>875</v>
+      </c>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="I39" s="35" t="s">
         <v>739</v>
       </c>
-      <c r="I34" s="24" t="s">
-        <v>335</v>
-      </c>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="16" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="I35" s="24" t="s">
-        <v>336</v>
-      </c>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="16" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="5" t="s">
-        <v>742</v>
-      </c>
-      <c r="I36" s="24" t="s">
-        <v>333</v>
-      </c>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="16" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B37" s="24" t="s">
-        <v>741</v>
-      </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="I37" s="24" t="s">
-        <v>334</v>
-      </c>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="16" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="I38" s="24" t="s">
-        <v>337</v>
-      </c>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="I39" s="24" t="s">
-        <v>740</v>
-      </c>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
       <c r="M39" s="17" t="s">
         <v>25</v>
       </c>
     </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="B25:D27"/>
-    <mergeCell ref="B31:D33"/>
+  <mergeCells count="65">
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B27:D29"/>
+    <mergeCell ref="B33:D35"/>
     <mergeCell ref="I29:L29"/>
     <mergeCell ref="I30:L30"/>
     <mergeCell ref="I31:L31"/>
     <mergeCell ref="I32:L32"/>
     <mergeCell ref="I33:L33"/>
-    <mergeCell ref="B28:D30"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="B30:D32"/>
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="B4:D5"/>
     <mergeCell ref="B6:D8"/>
@@ -13883,9 +13917,9 @@
     <mergeCell ref="I3:L3"/>
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="I5:L5"/>
-    <mergeCell ref="B20:D22"/>
-    <mergeCell ref="B23:D24"/>
-    <mergeCell ref="B18:D19"/>
+    <mergeCell ref="B22:D24"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="B20:D21"/>
     <mergeCell ref="I9:L9"/>
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
@@ -13899,14 +13933,14 @@
     <mergeCell ref="I18:L18"/>
     <mergeCell ref="I19:L19"/>
     <mergeCell ref="I21:L21"/>
-    <mergeCell ref="B34:D36"/>
+    <mergeCell ref="B36:D38"/>
     <mergeCell ref="I39:L39"/>
     <mergeCell ref="I34:L34"/>
     <mergeCell ref="I35:L35"/>
     <mergeCell ref="I36:L36"/>
     <mergeCell ref="I37:L37"/>
     <mergeCell ref="I38:L38"/>
-    <mergeCell ref="B37:D38"/>
+    <mergeCell ref="B39:D40"/>
     <mergeCell ref="P5:S5"/>
     <mergeCell ref="P6:S6"/>
     <mergeCell ref="I22:L22"/>
@@ -13916,12 +13950,13 @@
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="I20:L20"/>
+    <mergeCell ref="P11:S11"/>
     <mergeCell ref="P1:T1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="P2:S2"/>
     <mergeCell ref="P3:S3"/>
     <mergeCell ref="P4:S4"/>
-    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="B18:D19"/>
     <mergeCell ref="B15:D17"/>
     <mergeCell ref="B11:D14"/>
     <mergeCell ref="P7:S7"/>
@@ -13949,13 +13984,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="67" t="s">
         <v>226</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
@@ -14009,13 +14044,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="67" t="s">
         <v>228</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
@@ -14069,13 +14104,13 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="67" t="s">
         <v>231</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
@@ -14129,13 +14164,13 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="67" t="s">
         <v>234</v>
       </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
@@ -14189,13 +14224,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="67" t="s">
         <v>237</v>
       </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
@@ -14249,13 +14284,13 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27" s="56" t="s">
+      <c r="A27" s="67" t="s">
         <v>242</v>
       </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
@@ -14309,13 +14344,13 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A32" s="56" t="s">
+      <c r="A32" s="67" t="s">
         <v>243</v>
       </c>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
@@ -14369,13 +14404,13 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A37" s="56" t="s">
+      <c r="A37" s="67" t="s">
         <v>246</v>
       </c>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
@@ -14429,13 +14464,13 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A42" s="56" t="s">
+      <c r="A42" s="67" t="s">
         <v>249</v>
       </c>
-      <c r="B42" s="56"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
@@ -14489,13 +14524,13 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A47" s="56" t="s">
+      <c r="A47" s="67" t="s">
         <v>252</v>
       </c>
-      <c r="B47" s="56"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
@@ -14549,13 +14584,13 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A52" s="56" t="s">
+      <c r="A52" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="B52" s="56"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="56"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="67"/>
+      <c r="E52" s="67"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
@@ -14609,13 +14644,13 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A57" s="56" t="s">
+      <c r="A57" s="67" t="s">
         <v>260</v>
       </c>
-      <c r="B57" s="56"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="56"/>
-      <c r="E57" s="56"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
@@ -14669,13 +14704,13 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A62" s="56" t="s">
+      <c r="A62" s="67" t="s">
         <v>261</v>
       </c>
-      <c r="B62" s="56"/>
-      <c r="C62" s="56"/>
-      <c r="D62" s="56"/>
-      <c r="E62" s="56"/>
+      <c r="B62" s="67"/>
+      <c r="C62" s="67"/>
+      <c r="D62" s="67"/>
+      <c r="E62" s="67"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
@@ -14729,13 +14764,13 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A67" s="56" t="s">
+      <c r="A67" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="B67" s="56"/>
-      <c r="C67" s="56"/>
-      <c r="D67" s="56"/>
-      <c r="E67" s="56"/>
+      <c r="B67" s="67"/>
+      <c r="C67" s="67"/>
+      <c r="D67" s="67"/>
+      <c r="E67" s="67"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
@@ -14827,13 +14862,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="56" t="s">
-        <v>418</v>
-      </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
+      <c r="A2" s="67" t="s">
+        <v>417</v>
+      </c>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
@@ -14854,10 +14889,10 @@
     </row>
     <row r="4" spans="1:5" ht="94.5" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>412</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -14866,17 +14901,17 @@
         <v>9</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="56" t="s">
-        <v>413</v>
-      </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
+      <c r="A6" s="67" t="s">
+        <v>412</v>
+      </c>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
@@ -14914,10 +14949,10 @@
     </row>
     <row r="9" spans="1:5" ht="63" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -14926,17 +14961,17 @@
         <v>9</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="56" t="s">
-        <v>417</v>
-      </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
+      <c r="A11" s="67" t="s">
+        <v>416</v>
+      </c>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
@@ -14957,10 +14992,10 @@
     </row>
     <row r="13" spans="1:5" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
@@ -14969,17 +15004,17 @@
         <v>9</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="56" t="s">
-        <v>421</v>
-      </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
+      <c r="A15" s="67" t="s">
+        <v>420</v>
+      </c>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
@@ -15000,10 +15035,10 @@
     </row>
     <row r="17" spans="1:5" ht="94.5" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>
@@ -15012,17 +15047,17 @@
         <v>9</v>
       </c>
       <c r="E17" s="11" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="67" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="56" t="s">
-        <v>423</v>
-      </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
@@ -15063,26 +15098,26 @@
         <v>105</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="E22" s="11" t="s">
-        <v>425</v>
-      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" s="56" t="s">
-        <v>428</v>
-      </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
+      <c r="A24" s="67" t="s">
+        <v>427</v>
+      </c>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
@@ -15123,7 +15158,7 @@
         <v>105</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>122</v>
@@ -15132,17 +15167,17 @@
         <v>9</v>
       </c>
       <c r="E27" s="11" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" s="67" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A29" s="56" t="s">
-        <v>431</v>
-      </c>
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
@@ -15166,16 +15201,16 @@
         <v>104</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="63" x14ac:dyDescent="0.45">
@@ -15183,26 +15218,26 @@
         <v>105</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E32" s="11" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" s="67" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A34" s="56" t="s">
-        <v>437</v>
-      </c>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
@@ -15223,7 +15258,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>25</v>
@@ -15243,7 +15278,7 @@
         <v>16</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C37" s="1">
         <v>0</v>
@@ -15252,7 +15287,7 @@
         <v>9</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="63" x14ac:dyDescent="0.45">
@@ -15260,7 +15295,7 @@
         <v>105</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>122</v>
@@ -15269,17 +15304,17 @@
         <v>9</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A40" s="56" t="s">
-        <v>443</v>
-      </c>
-      <c r="B40" s="56"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
+      <c r="A40" s="67" t="s">
+        <v>442</v>
+      </c>
+      <c r="B40" s="67"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
@@ -15300,10 +15335,10 @@
     </row>
     <row r="42" spans="1:5" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>444</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>445</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>122</v>
@@ -15312,17 +15347,17 @@
         <v>9</v>
       </c>
       <c r="E42" s="11" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44" s="67" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A44" s="56" t="s">
-        <v>447</v>
-      </c>
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
@@ -15343,10 +15378,10 @@
     </row>
     <row r="46" spans="1:5" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>122</v>
@@ -15355,7 +15390,7 @@
         <v>9</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -15390,24 +15425,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A1" s="61" t="s">
-        <v>466</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
+      <c r="A1" s="72" t="s">
+        <v>465</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="18">
@@ -15460,38 +15495,38 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="73" t="s">
+        <v>449</v>
+      </c>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73" t="s">
         <v>450</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62" t="s">
+      <c r="D3" s="73"/>
+      <c r="E3" s="73" t="s">
         <v>451</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62" t="s">
+      <c r="F3" s="73"/>
+      <c r="G3" s="73" t="s">
         <v>452</v>
       </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62" t="s">
+      <c r="H3" s="73"/>
+      <c r="I3" s="73" t="s">
         <v>453</v>
       </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62" t="s">
+      <c r="J3" s="73"/>
+      <c r="K3" s="73" t="s">
         <v>454</v>
       </c>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62" t="s">
+      <c r="L3" s="73"/>
+      <c r="M3" s="73" t="s">
         <v>455</v>
       </c>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62" t="s">
+      <c r="N3" s="73"/>
+      <c r="O3" s="73" t="s">
         <v>456</v>
       </c>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62" t="s">
-        <v>457</v>
-      </c>
-      <c r="P3" s="62"/>
+      <c r="P3" s="73"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="19" t="s">
@@ -15594,38 +15629,38 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="73" t="s">
+        <v>457</v>
+      </c>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73" t="s">
         <v>458</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62" t="s">
+      <c r="D7" s="73"/>
+      <c r="E7" s="73" t="s">
         <v>459</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62" t="s">
+      <c r="F7" s="73"/>
+      <c r="G7" s="73" t="s">
         <v>460</v>
       </c>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62" t="s">
+      <c r="H7" s="73"/>
+      <c r="I7" s="73" t="s">
         <v>461</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62" t="s">
+      <c r="J7" s="73"/>
+      <c r="K7" s="73" t="s">
         <v>462</v>
       </c>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62" t="s">
+      <c r="L7" s="73"/>
+      <c r="M7" s="73" t="s">
         <v>463</v>
       </c>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62" t="s">
+      <c r="N7" s="73"/>
+      <c r="O7" s="73" t="s">
         <v>464</v>
       </c>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62" t="s">
-        <v>465</v>
-      </c>
-      <c r="P7" s="62"/>
+      <c r="P7" s="73"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="19" t="s">
@@ -15678,24 +15713,24 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A11" s="61" t="s">
-        <v>467</v>
-      </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
+      <c r="A11" s="72" t="s">
+        <v>466</v>
+      </c>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="72"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" s="18">
@@ -15748,40 +15783,40 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A13" s="63"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="65"/>
+      <c r="A13" s="74"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="76"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A14" s="66"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="68"/>
+      <c r="A14" s="77"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="78"/>
+      <c r="P14" s="79"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" s="18">
@@ -15835,52 +15870,52 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="C17" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="D17" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="E17" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="F17" s="19" t="s">
         <v>472</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="G17" s="19" t="s">
         <v>473</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="H17" s="19" t="s">
         <v>474</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="I17" s="19" t="s">
         <v>475</v>
       </c>
-      <c r="I17" s="19" t="s">
+      <c r="J17" s="19" t="s">
         <v>476</v>
       </c>
-      <c r="J17" s="19" t="s">
+      <c r="K17" s="19" t="s">
         <v>477</v>
       </c>
-      <c r="K17" s="19" t="s">
+      <c r="L17" s="19" t="s">
         <v>478</v>
       </c>
-      <c r="L17" s="19" t="s">
+      <c r="M17" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="M17" s="19" t="s">
+      <c r="N17" s="19" t="s">
         <v>480</v>
       </c>
-      <c r="N17" s="19" t="s">
+      <c r="O17" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="O17" s="19" t="s">
+      <c r="P17" s="19" t="s">
         <v>482</v>
-      </c>
-      <c r="P17" s="19" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.45">
@@ -15934,24 +15969,24 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A21" s="61" t="s">
-        <v>484</v>
-      </c>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="61"/>
+      <c r="A21" s="72" t="s">
+        <v>483</v>
+      </c>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="72"/>
+      <c r="P21" s="72"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22" s="18">
@@ -16004,38 +16039,38 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="73" t="s">
+        <v>484</v>
+      </c>
+      <c r="B23" s="73"/>
+      <c r="C23" s="73" t="s">
         <v>485</v>
       </c>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62" t="s">
+      <c r="D23" s="73"/>
+      <c r="E23" s="73" t="s">
         <v>486</v>
       </c>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62" t="s">
+      <c r="F23" s="73"/>
+      <c r="G23" s="73" t="s">
         <v>487</v>
       </c>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62" t="s">
+      <c r="H23" s="73"/>
+      <c r="I23" s="73" t="s">
         <v>488</v>
       </c>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62" t="s">
+      <c r="J23" s="73"/>
+      <c r="K23" s="73" t="s">
         <v>489</v>
       </c>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62" t="s">
+      <c r="L23" s="73"/>
+      <c r="M23" s="73" t="s">
         <v>490</v>
       </c>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62" t="s">
+      <c r="N23" s="73"/>
+      <c r="O23" s="73" t="s">
         <v>491</v>
       </c>
-      <c r="N23" s="62"/>
-      <c r="O23" s="62" t="s">
-        <v>492</v>
-      </c>
-      <c r="P23" s="62"/>
+      <c r="P23" s="73"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" s="19" t="s">
@@ -16138,38 +16173,38 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="73" t="s">
+        <v>492</v>
+      </c>
+      <c r="B27" s="73"/>
+      <c r="C27" s="73" t="s">
         <v>493</v>
       </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62" t="s">
+      <c r="D27" s="73"/>
+      <c r="E27" s="73" t="s">
         <v>494</v>
       </c>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62" t="s">
+      <c r="F27" s="73"/>
+      <c r="G27" s="73" t="s">
         <v>495</v>
       </c>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62" t="s">
+      <c r="H27" s="73"/>
+      <c r="I27" s="73" t="s">
         <v>496</v>
       </c>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62" t="s">
+      <c r="J27" s="73"/>
+      <c r="K27" s="73" t="s">
         <v>497</v>
       </c>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62" t="s">
+      <c r="L27" s="73"/>
+      <c r="M27" s="73" t="s">
         <v>498</v>
       </c>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62" t="s">
+      <c r="N27" s="73"/>
+      <c r="O27" s="73" t="s">
         <v>499</v>
       </c>
-      <c r="N27" s="62"/>
-      <c r="O27" s="62" t="s">
-        <v>500</v>
-      </c>
-      <c r="P27" s="62"/>
+      <c r="P27" s="73"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28" s="19" t="s">
@@ -16222,24 +16257,24 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A31" s="61" t="s">
-        <v>501</v>
-      </c>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="61"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="61"/>
-      <c r="P31" s="61"/>
+      <c r="A31" s="72" t="s">
+        <v>500</v>
+      </c>
+      <c r="B31" s="72"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="72"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="72"/>
+      <c r="P31" s="72"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32" s="18">
@@ -16292,38 +16327,38 @@
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A33" s="62" t="s">
+      <c r="A33" s="73" t="s">
+        <v>501</v>
+      </c>
+      <c r="B33" s="73"/>
+      <c r="C33" s="73" t="s">
         <v>502</v>
       </c>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62" t="s">
+      <c r="D33" s="73"/>
+      <c r="E33" s="73" t="s">
         <v>503</v>
       </c>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62" t="s">
+      <c r="F33" s="73"/>
+      <c r="G33" s="73" t="s">
         <v>504</v>
       </c>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62" t="s">
+      <c r="H33" s="73"/>
+      <c r="I33" s="73" t="s">
         <v>505</v>
       </c>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62" t="s">
+      <c r="J33" s="73"/>
+      <c r="K33" s="73" t="s">
         <v>506</v>
       </c>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62" t="s">
+      <c r="L33" s="73"/>
+      <c r="M33" s="73" t="s">
         <v>507</v>
       </c>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62" t="s">
+      <c r="N33" s="73"/>
+      <c r="O33" s="73" t="s">
         <v>508</v>
       </c>
-      <c r="N33" s="62"/>
-      <c r="O33" s="62" t="s">
-        <v>509</v>
-      </c>
-      <c r="P33" s="62"/>
+      <c r="P33" s="73"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A34" s="19" t="s">
@@ -16426,38 +16461,38 @@
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A37" s="62" t="s">
+      <c r="A37" s="73" t="s">
+        <v>509</v>
+      </c>
+      <c r="B37" s="73"/>
+      <c r="C37" s="73" t="s">
         <v>510</v>
       </c>
-      <c r="B37" s="62"/>
-      <c r="C37" s="62" t="s">
+      <c r="D37" s="73"/>
+      <c r="E37" s="73" t="s">
         <v>511</v>
       </c>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62" t="s">
+      <c r="F37" s="73"/>
+      <c r="G37" s="73" t="s">
         <v>512</v>
       </c>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62" t="s">
+      <c r="H37" s="73"/>
+      <c r="I37" s="73" t="s">
         <v>513</v>
       </c>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62" t="s">
+      <c r="J37" s="73"/>
+      <c r="K37" s="73" t="s">
         <v>514</v>
       </c>
-      <c r="J37" s="62"/>
-      <c r="K37" s="62" t="s">
+      <c r="L37" s="73"/>
+      <c r="M37" s="73" t="s">
         <v>515</v>
       </c>
-      <c r="L37" s="62"/>
-      <c r="M37" s="62" t="s">
+      <c r="N37" s="73"/>
+      <c r="O37" s="73" t="s">
         <v>516</v>
       </c>
-      <c r="N37" s="62"/>
-      <c r="O37" s="62" t="s">
-        <v>517</v>
-      </c>
-      <c r="P37" s="62"/>
+      <c r="P37" s="73"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A38" s="19" t="s">
@@ -16510,24 +16545,24 @@
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A41" s="61" t="s">
-        <v>518</v>
-      </c>
-      <c r="B41" s="61"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
-      <c r="J41" s="61"/>
-      <c r="K41" s="61"/>
-      <c r="L41" s="61"/>
-      <c r="M41" s="61"/>
-      <c r="N41" s="61"/>
-      <c r="O41" s="61"/>
-      <c r="P41" s="61"/>
+      <c r="A41" s="72" t="s">
+        <v>517</v>
+      </c>
+      <c r="B41" s="72"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="72"/>
+      <c r="K41" s="72"/>
+      <c r="L41" s="72"/>
+      <c r="M41" s="72"/>
+      <c r="N41" s="72"/>
+      <c r="O41" s="72"/>
+      <c r="P41" s="72"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A42" s="18">
@@ -16580,40 +16615,40 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A43" s="63"/>
-      <c r="B43" s="64"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="64"/>
-      <c r="I43" s="64"/>
-      <c r="J43" s="64"/>
-      <c r="K43" s="64"/>
-      <c r="L43" s="64"/>
-      <c r="M43" s="64"/>
-      <c r="N43" s="64"/>
-      <c r="O43" s="64"/>
-      <c r="P43" s="65"/>
+      <c r="A43" s="74"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="75"/>
+      <c r="I43" s="75"/>
+      <c r="J43" s="75"/>
+      <c r="K43" s="75"/>
+      <c r="L43" s="75"/>
+      <c r="M43" s="75"/>
+      <c r="N43" s="75"/>
+      <c r="O43" s="75"/>
+      <c r="P43" s="76"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A44" s="66"/>
-      <c r="B44" s="67"/>
-      <c r="C44" s="67"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="67"/>
-      <c r="H44" s="67"/>
-      <c r="I44" s="67"/>
-      <c r="J44" s="67"/>
-      <c r="K44" s="67"/>
-      <c r="L44" s="67"/>
-      <c r="M44" s="67"/>
-      <c r="N44" s="67"/>
-      <c r="O44" s="67"/>
-      <c r="P44" s="68"/>
+      <c r="A44" s="77"/>
+      <c r="B44" s="78"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="78"/>
+      <c r="H44" s="78"/>
+      <c r="I44" s="78"/>
+      <c r="J44" s="78"/>
+      <c r="K44" s="78"/>
+      <c r="L44" s="78"/>
+      <c r="M44" s="78"/>
+      <c r="N44" s="78"/>
+      <c r="O44" s="78"/>
+      <c r="P44" s="79"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A46" s="18">
@@ -16667,123 +16702,123 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A47" s="19" t="s">
+        <v>518</v>
+      </c>
+      <c r="B47" s="19" t="s">
         <v>519</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="C47" s="19" t="s">
         <v>520</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="D47" s="19" t="s">
         <v>521</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="E47" s="19" t="s">
         <v>522</v>
       </c>
-      <c r="E47" s="19" t="s">
+      <c r="F47" s="19" t="s">
         <v>523</v>
       </c>
-      <c r="F47" s="19" t="s">
+      <c r="G47" s="19" t="s">
         <v>524</v>
       </c>
-      <c r="G47" s="19" t="s">
+      <c r="H47" s="19" t="s">
         <v>525</v>
       </c>
-      <c r="H47" s="19" t="s">
+      <c r="I47" s="19" t="s">
         <v>526</v>
       </c>
-      <c r="I47" s="19" t="s">
+      <c r="J47" s="19" t="s">
         <v>527</v>
       </c>
-      <c r="J47" s="19" t="s">
+      <c r="K47" s="19" t="s">
         <v>528</v>
       </c>
-      <c r="K47" s="19" t="s">
+      <c r="L47" s="19" t="s">
         <v>529</v>
       </c>
-      <c r="L47" s="19" t="s">
+      <c r="M47" s="19" t="s">
         <v>530</v>
       </c>
-      <c r="M47" s="19" t="s">
+      <c r="N47" s="19" t="s">
         <v>531</v>
       </c>
-      <c r="N47" s="19" t="s">
+      <c r="O47" s="19" t="s">
         <v>532</v>
       </c>
-      <c r="O47" s="19" t="s">
+      <c r="P47" s="19" t="s">
         <v>533</v>
-      </c>
-      <c r="P47" s="19" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A48" s="19" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H48" s="19" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I48" s="19" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J48" s="19" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K48" s="19" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L48" s="19" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="M48" s="19" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="N48" s="19" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O48" s="19" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P48" s="19" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A51" s="61" t="s">
-        <v>535</v>
-      </c>
-      <c r="B51" s="61"/>
-      <c r="C51" s="61"/>
-      <c r="D51" s="61"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="61"/>
-      <c r="G51" s="61"/>
-      <c r="H51" s="61"/>
-      <c r="I51" s="61"/>
-      <c r="J51" s="61"/>
-      <c r="K51" s="61"/>
-      <c r="L51" s="61"/>
-      <c r="M51" s="61"/>
-      <c r="N51" s="61"/>
-      <c r="O51" s="61"/>
-      <c r="P51" s="61"/>
+      <c r="A51" s="72" t="s">
+        <v>534</v>
+      </c>
+      <c r="B51" s="72"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="72"/>
+      <c r="H51" s="72"/>
+      <c r="I51" s="72"/>
+      <c r="J51" s="72"/>
+      <c r="K51" s="72"/>
+      <c r="L51" s="72"/>
+      <c r="M51" s="72"/>
+      <c r="N51" s="72"/>
+      <c r="O51" s="72"/>
+      <c r="P51" s="72"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A52" s="18">
@@ -16836,40 +16871,40 @@
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A53" s="63"/>
-      <c r="B53" s="64"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="64"/>
-      <c r="F53" s="64"/>
-      <c r="G53" s="64"/>
-      <c r="H53" s="64"/>
-      <c r="I53" s="64"/>
-      <c r="J53" s="64"/>
-      <c r="K53" s="64"/>
-      <c r="L53" s="64"/>
-      <c r="M53" s="64"/>
-      <c r="N53" s="64"/>
-      <c r="O53" s="64"/>
-      <c r="P53" s="65"/>
+      <c r="A53" s="74"/>
+      <c r="B53" s="75"/>
+      <c r="C53" s="75"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="75"/>
+      <c r="F53" s="75"/>
+      <c r="G53" s="75"/>
+      <c r="H53" s="75"/>
+      <c r="I53" s="75"/>
+      <c r="J53" s="75"/>
+      <c r="K53" s="75"/>
+      <c r="L53" s="75"/>
+      <c r="M53" s="75"/>
+      <c r="N53" s="75"/>
+      <c r="O53" s="75"/>
+      <c r="P53" s="76"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A54" s="66"/>
-      <c r="B54" s="67"/>
-      <c r="C54" s="67"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="67"/>
-      <c r="I54" s="67"/>
-      <c r="J54" s="67"/>
-      <c r="K54" s="67"/>
-      <c r="L54" s="67"/>
-      <c r="M54" s="67"/>
-      <c r="N54" s="67"/>
-      <c r="O54" s="67"/>
-      <c r="P54" s="68"/>
+      <c r="A54" s="77"/>
+      <c r="B54" s="78"/>
+      <c r="C54" s="78"/>
+      <c r="D54" s="78"/>
+      <c r="E54" s="78"/>
+      <c r="F54" s="78"/>
+      <c r="G54" s="78"/>
+      <c r="H54" s="78"/>
+      <c r="I54" s="78"/>
+      <c r="J54" s="78"/>
+      <c r="K54" s="78"/>
+      <c r="L54" s="78"/>
+      <c r="M54" s="78"/>
+      <c r="N54" s="78"/>
+      <c r="O54" s="78"/>
+      <c r="P54" s="79"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A56" s="18">
@@ -16923,52 +16958,52 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A57" s="19" t="s">
+        <v>535</v>
+      </c>
+      <c r="B57" s="19" t="s">
         <v>536</v>
       </c>
-      <c r="B57" s="19" t="s">
+      <c r="C57" s="19" t="s">
         <v>537</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="D57" s="19" t="s">
         <v>538</v>
       </c>
-      <c r="D57" s="19" t="s">
+      <c r="E57" s="19" t="s">
         <v>539</v>
       </c>
-      <c r="E57" s="19" t="s">
+      <c r="F57" s="19" t="s">
         <v>540</v>
       </c>
-      <c r="F57" s="19" t="s">
+      <c r="G57" s="19" t="s">
         <v>541</v>
       </c>
-      <c r="G57" s="19" t="s">
+      <c r="H57" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="H57" s="19" t="s">
+      <c r="I57" s="19" t="s">
         <v>543</v>
       </c>
-      <c r="I57" s="19" t="s">
+      <c r="J57" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="J57" s="19" t="s">
+      <c r="K57" s="19" t="s">
         <v>545</v>
       </c>
-      <c r="K57" s="19" t="s">
+      <c r="L57" s="19" t="s">
         <v>546</v>
       </c>
-      <c r="L57" s="19" t="s">
+      <c r="M57" s="19" t="s">
         <v>547</v>
       </c>
-      <c r="M57" s="19" t="s">
+      <c r="N57" s="19" t="s">
         <v>548</v>
       </c>
-      <c r="N57" s="19" t="s">
+      <c r="O57" s="19" t="s">
         <v>549</v>
       </c>
-      <c r="O57" s="19" t="s">
+      <c r="P57" s="19" t="s">
         <v>550</v>
-      </c>
-      <c r="P57" s="19" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.45">
@@ -17022,24 +17057,24 @@
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A61" s="61" t="s">
-        <v>552</v>
-      </c>
-      <c r="B61" s="61"/>
-      <c r="C61" s="61"/>
-      <c r="D61" s="61"/>
-      <c r="E61" s="61"/>
-      <c r="F61" s="61"/>
-      <c r="G61" s="61"/>
-      <c r="H61" s="61"/>
-      <c r="I61" s="61"/>
-      <c r="J61" s="61"/>
-      <c r="K61" s="61"/>
-      <c r="L61" s="61"/>
-      <c r="M61" s="61"/>
-      <c r="N61" s="61"/>
-      <c r="O61" s="61"/>
-      <c r="P61" s="61"/>
+      <c r="A61" s="72" t="s">
+        <v>551</v>
+      </c>
+      <c r="B61" s="72"/>
+      <c r="C61" s="72"/>
+      <c r="D61" s="72"/>
+      <c r="E61" s="72"/>
+      <c r="F61" s="72"/>
+      <c r="G61" s="72"/>
+      <c r="H61" s="72"/>
+      <c r="I61" s="72"/>
+      <c r="J61" s="72"/>
+      <c r="K61" s="72"/>
+      <c r="L61" s="72"/>
+      <c r="M61" s="72"/>
+      <c r="N61" s="72"/>
+      <c r="O61" s="72"/>
+      <c r="P61" s="72"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A62" s="18">
@@ -17093,102 +17128,102 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A63" s="19" t="s">
+        <v>552</v>
+      </c>
+      <c r="B63" s="19" t="s">
         <v>553</v>
       </c>
-      <c r="B63" s="19" t="s">
+      <c r="C63" s="19" t="s">
         <v>554</v>
       </c>
-      <c r="C63" s="19" t="s">
+      <c r="D63" s="19" t="s">
         <v>555</v>
       </c>
-      <c r="D63" s="19" t="s">
+      <c r="E63" s="19" t="s">
         <v>556</v>
       </c>
-      <c r="E63" s="19" t="s">
+      <c r="F63" s="19" t="s">
         <v>557</v>
       </c>
-      <c r="F63" s="19" t="s">
+      <c r="G63" s="19" t="s">
         <v>558</v>
       </c>
-      <c r="G63" s="19" t="s">
+      <c r="H63" s="19" t="s">
         <v>559</v>
       </c>
-      <c r="H63" s="19" t="s">
+      <c r="I63" s="19" t="s">
         <v>560</v>
       </c>
-      <c r="I63" s="19" t="s">
+      <c r="J63" s="19" t="s">
         <v>561</v>
       </c>
-      <c r="J63" s="19" t="s">
+      <c r="K63" s="19" t="s">
         <v>562</v>
       </c>
-      <c r="K63" s="19" t="s">
+      <c r="L63" s="19" t="s">
         <v>563</v>
       </c>
-      <c r="L63" s="19" t="s">
+      <c r="M63" s="19" t="s">
         <v>564</v>
       </c>
-      <c r="M63" s="19" t="s">
+      <c r="N63" s="19" t="s">
         <v>565</v>
       </c>
-      <c r="N63" s="19" t="s">
+      <c r="O63" s="19" t="s">
         <v>566</v>
       </c>
-      <c r="O63" s="19" t="s">
+      <c r="P63" s="19" t="s">
         <v>567</v>
-      </c>
-      <c r="P63" s="19" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A64" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F64" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G64" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H64" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I64" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J64" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K64" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L64" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="M64" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="N64" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="O64" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="P64" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.45">
@@ -17243,123 +17278,123 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A67" s="19" t="s">
+        <v>568</v>
+      </c>
+      <c r="B67" s="19" t="s">
         <v>569</v>
       </c>
-      <c r="B67" s="19" t="s">
+      <c r="C67" s="19" t="s">
         <v>570</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="D67" s="19" t="s">
         <v>571</v>
       </c>
-      <c r="D67" s="19" t="s">
+      <c r="E67" s="19" t="s">
         <v>572</v>
       </c>
-      <c r="E67" s="19" t="s">
+      <c r="F67" s="19" t="s">
         <v>573</v>
       </c>
-      <c r="F67" s="19" t="s">
+      <c r="G67" s="19" t="s">
         <v>574</v>
       </c>
-      <c r="G67" s="19" t="s">
+      <c r="H67" s="19" t="s">
         <v>575</v>
       </c>
-      <c r="H67" s="19" t="s">
+      <c r="I67" s="19" t="s">
         <v>576</v>
       </c>
-      <c r="I67" s="19" t="s">
+      <c r="J67" s="19" t="s">
         <v>577</v>
       </c>
-      <c r="J67" s="19" t="s">
+      <c r="K67" s="19" t="s">
         <v>578</v>
       </c>
-      <c r="K67" s="19" t="s">
+      <c r="L67" s="19" t="s">
         <v>579</v>
       </c>
-      <c r="L67" s="19" t="s">
+      <c r="M67" s="19" t="s">
         <v>580</v>
       </c>
-      <c r="M67" s="19" t="s">
+      <c r="N67" s="19" t="s">
         <v>581</v>
       </c>
-      <c r="N67" s="19" t="s">
+      <c r="O67" s="19" t="s">
         <v>582</v>
       </c>
-      <c r="O67" s="19" t="s">
+      <c r="P67" s="19" t="s">
         <v>583</v>
-      </c>
-      <c r="P67" s="19" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A68" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E68" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F68" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G68" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H68" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I68" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J68" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K68" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L68" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="M68" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="N68" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="O68" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="P68" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A71" s="61" t="s">
-        <v>585</v>
-      </c>
-      <c r="B71" s="61"/>
-      <c r="C71" s="61"/>
-      <c r="D71" s="61"/>
-      <c r="E71" s="61"/>
-      <c r="F71" s="61"/>
-      <c r="G71" s="61"/>
-      <c r="H71" s="61"/>
-      <c r="I71" s="61"/>
-      <c r="J71" s="61"/>
-      <c r="K71" s="61"/>
-      <c r="L71" s="61"/>
-      <c r="M71" s="61"/>
-      <c r="N71" s="61"/>
-      <c r="O71" s="61"/>
-      <c r="P71" s="61"/>
+      <c r="A71" s="72" t="s">
+        <v>584</v>
+      </c>
+      <c r="B71" s="72"/>
+      <c r="C71" s="72"/>
+      <c r="D71" s="72"/>
+      <c r="E71" s="72"/>
+      <c r="F71" s="72"/>
+      <c r="G71" s="72"/>
+      <c r="H71" s="72"/>
+      <c r="I71" s="72"/>
+      <c r="J71" s="72"/>
+      <c r="K71" s="72"/>
+      <c r="L71" s="72"/>
+      <c r="M71" s="72"/>
+      <c r="N71" s="72"/>
+      <c r="O71" s="72"/>
+      <c r="P71" s="72"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A72" s="18">
@@ -17412,41 +17447,41 @@
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A73" s="62"/>
-      <c r="B73" s="62"/>
-      <c r="C73" s="62"/>
-      <c r="D73" s="62"/>
-      <c r="E73" s="62"/>
-      <c r="F73" s="62"/>
-      <c r="G73" s="62"/>
-      <c r="H73" s="62"/>
-      <c r="I73" s="62"/>
-      <c r="J73" s="62"/>
-      <c r="K73" s="62"/>
-      <c r="L73" s="62"/>
-      <c r="M73" s="62"/>
-      <c r="N73" s="62"/>
-      <c r="O73" s="62"/>
+      <c r="A73" s="73"/>
+      <c r="B73" s="73"/>
+      <c r="C73" s="73"/>
+      <c r="D73" s="73"/>
+      <c r="E73" s="73"/>
+      <c r="F73" s="73"/>
+      <c r="G73" s="73"/>
+      <c r="H73" s="73"/>
+      <c r="I73" s="73"/>
+      <c r="J73" s="73"/>
+      <c r="K73" s="73"/>
+      <c r="L73" s="73"/>
+      <c r="M73" s="73"/>
+      <c r="N73" s="73"/>
+      <c r="O73" s="73"/>
       <c r="P73" s="19" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A74" s="62"/>
-      <c r="B74" s="62"/>
-      <c r="C74" s="62"/>
-      <c r="D74" s="62"/>
-      <c r="E74" s="62"/>
-      <c r="F74" s="62"/>
-      <c r="G74" s="62"/>
-      <c r="H74" s="62"/>
-      <c r="I74" s="62"/>
-      <c r="J74" s="62"/>
-      <c r="K74" s="62"/>
-      <c r="L74" s="62"/>
-      <c r="M74" s="62"/>
-      <c r="N74" s="62"/>
-      <c r="O74" s="62"/>
+      <c r="A74" s="73"/>
+      <c r="B74" s="73"/>
+      <c r="C74" s="73"/>
+      <c r="D74" s="73"/>
+      <c r="E74" s="73"/>
+      <c r="F74" s="73"/>
+      <c r="G74" s="73"/>
+      <c r="H74" s="73"/>
+      <c r="I74" s="73"/>
+      <c r="J74" s="73"/>
+      <c r="K74" s="73"/>
+      <c r="L74" s="73"/>
+      <c r="M74" s="73"/>
+      <c r="N74" s="73"/>
+      <c r="O74" s="73"/>
       <c r="P74" s="19" t="s">
         <v>9</v>
       </c>
@@ -17503,52 +17538,52 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A77" s="19" t="s">
+        <v>585</v>
+      </c>
+      <c r="B77" s="19" t="s">
         <v>586</v>
       </c>
-      <c r="B77" s="19" t="s">
+      <c r="C77" s="19" t="s">
         <v>587</v>
       </c>
-      <c r="C77" s="19" t="s">
+      <c r="D77" s="19" t="s">
         <v>588</v>
       </c>
-      <c r="D77" s="19" t="s">
+      <c r="E77" s="19" t="s">
         <v>589</v>
       </c>
-      <c r="E77" s="19" t="s">
+      <c r="F77" s="19" t="s">
         <v>590</v>
       </c>
-      <c r="F77" s="19" t="s">
+      <c r="G77" s="19" t="s">
         <v>591</v>
       </c>
-      <c r="G77" s="19" t="s">
+      <c r="H77" s="19" t="s">
         <v>592</v>
       </c>
-      <c r="H77" s="19" t="s">
+      <c r="I77" s="19" t="s">
         <v>593</v>
       </c>
-      <c r="I77" s="19" t="s">
+      <c r="J77" s="19" t="s">
         <v>594</v>
       </c>
-      <c r="J77" s="19" t="s">
+      <c r="K77" s="19" t="s">
         <v>595</v>
       </c>
-      <c r="K77" s="19" t="s">
+      <c r="L77" s="19" t="s">
         <v>596</v>
       </c>
-      <c r="L77" s="19" t="s">
+      <c r="M77" s="19" t="s">
         <v>597</v>
       </c>
-      <c r="M77" s="19" t="s">
+      <c r="N77" s="19" t="s">
         <v>598</v>
       </c>
-      <c r="N77" s="19" t="s">
+      <c r="O77" s="19" t="s">
         <v>599</v>
       </c>
-      <c r="O77" s="19" t="s">
+      <c r="P77" s="19" t="s">
         <v>600</v>
-      </c>
-      <c r="P77" s="19" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.45">
@@ -17602,24 +17637,24 @@
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A81" s="61" t="s">
-        <v>602</v>
-      </c>
-      <c r="B81" s="61"/>
-      <c r="C81" s="61"/>
-      <c r="D81" s="61"/>
-      <c r="E81" s="61"/>
-      <c r="F81" s="61"/>
-      <c r="G81" s="61"/>
-      <c r="H81" s="61"/>
-      <c r="I81" s="61"/>
-      <c r="J81" s="61"/>
-      <c r="K81" s="61"/>
-      <c r="L81" s="61"/>
-      <c r="M81" s="61"/>
-      <c r="N81" s="61"/>
-      <c r="O81" s="61"/>
-      <c r="P81" s="61"/>
+      <c r="A81" s="72" t="s">
+        <v>601</v>
+      </c>
+      <c r="B81" s="72"/>
+      <c r="C81" s="72"/>
+      <c r="D81" s="72"/>
+      <c r="E81" s="72"/>
+      <c r="F81" s="72"/>
+      <c r="G81" s="72"/>
+      <c r="H81" s="72"/>
+      <c r="I81" s="72"/>
+      <c r="J81" s="72"/>
+      <c r="K81" s="72"/>
+      <c r="L81" s="72"/>
+      <c r="M81" s="72"/>
+      <c r="N81" s="72"/>
+      <c r="O81" s="72"/>
+      <c r="P81" s="72"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A82" s="18">
@@ -17672,30 +17707,30 @@
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A83" s="58" t="s">
+      <c r="A83" s="69" t="s">
+        <v>602</v>
+      </c>
+      <c r="B83" s="70"/>
+      <c r="C83" s="70"/>
+      <c r="D83" s="71"/>
+      <c r="E83" s="69" t="s">
         <v>603</v>
       </c>
-      <c r="B83" s="59"/>
-      <c r="C83" s="59"/>
-      <c r="D83" s="60"/>
-      <c r="E83" s="58" t="s">
+      <c r="F83" s="70"/>
+      <c r="G83" s="70"/>
+      <c r="H83" s="71"/>
+      <c r="I83" s="69" t="s">
         <v>604</v>
       </c>
-      <c r="F83" s="59"/>
-      <c r="G83" s="59"/>
-      <c r="H83" s="60"/>
-      <c r="I83" s="58" t="s">
+      <c r="J83" s="70"/>
+      <c r="K83" s="70"/>
+      <c r="L83" s="71"/>
+      <c r="M83" s="69" t="s">
         <v>605</v>
       </c>
-      <c r="J83" s="59"/>
-      <c r="K83" s="59"/>
-      <c r="L83" s="60"/>
-      <c r="M83" s="58" t="s">
-        <v>606</v>
-      </c>
-      <c r="N83" s="59"/>
-      <c r="O83" s="59"/>
-      <c r="P83" s="60"/>
+      <c r="N83" s="70"/>
+      <c r="O83" s="70"/>
+      <c r="P83" s="71"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A84" s="19" t="s">
@@ -17798,30 +17833,30 @@
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A87" s="58" t="s">
+      <c r="A87" s="69" t="s">
+        <v>606</v>
+      </c>
+      <c r="B87" s="70"/>
+      <c r="C87" s="70"/>
+      <c r="D87" s="71"/>
+      <c r="E87" s="69" t="s">
         <v>607</v>
       </c>
-      <c r="B87" s="59"/>
-      <c r="C87" s="59"/>
-      <c r="D87" s="60"/>
-      <c r="E87" s="58" t="s">
+      <c r="F87" s="70"/>
+      <c r="G87" s="70"/>
+      <c r="H87" s="71"/>
+      <c r="I87" s="69" t="s">
         <v>608</v>
       </c>
-      <c r="F87" s="59"/>
-      <c r="G87" s="59"/>
-      <c r="H87" s="60"/>
-      <c r="I87" s="58" t="s">
+      <c r="J87" s="70"/>
+      <c r="K87" s="70"/>
+      <c r="L87" s="71"/>
+      <c r="M87" s="69" t="s">
         <v>609</v>
       </c>
-      <c r="J87" s="59"/>
-      <c r="K87" s="59"/>
-      <c r="L87" s="60"/>
-      <c r="M87" s="58" t="s">
-        <v>610</v>
-      </c>
-      <c r="N87" s="59"/>
-      <c r="O87" s="59"/>
-      <c r="P87" s="60"/>
+      <c r="N87" s="70"/>
+      <c r="O87" s="70"/>
+      <c r="P87" s="71"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A88" s="19" t="s">
@@ -17874,24 +17909,24 @@
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A91" s="61" t="s">
-        <v>611</v>
-      </c>
-      <c r="B91" s="61"/>
-      <c r="C91" s="61"/>
-      <c r="D91" s="61"/>
-      <c r="E91" s="61"/>
-      <c r="F91" s="61"/>
-      <c r="G91" s="61"/>
-      <c r="H91" s="61"/>
-      <c r="I91" s="61"/>
-      <c r="J91" s="61"/>
-      <c r="K91" s="61"/>
-      <c r="L91" s="61"/>
-      <c r="M91" s="61"/>
-      <c r="N91" s="61"/>
-      <c r="O91" s="61"/>
-      <c r="P91" s="61"/>
+      <c r="A91" s="72" t="s">
+        <v>610</v>
+      </c>
+      <c r="B91" s="72"/>
+      <c r="C91" s="72"/>
+      <c r="D91" s="72"/>
+      <c r="E91" s="72"/>
+      <c r="F91" s="72"/>
+      <c r="G91" s="72"/>
+      <c r="H91" s="72"/>
+      <c r="I91" s="72"/>
+      <c r="J91" s="72"/>
+      <c r="K91" s="72"/>
+      <c r="L91" s="72"/>
+      <c r="M91" s="72"/>
+      <c r="N91" s="72"/>
+      <c r="O91" s="72"/>
+      <c r="P91" s="72"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A92" s="18">
@@ -17944,30 +17979,30 @@
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A93" s="58" t="s">
+      <c r="A93" s="69" t="s">
+        <v>611</v>
+      </c>
+      <c r="B93" s="70"/>
+      <c r="C93" s="70"/>
+      <c r="D93" s="71"/>
+      <c r="E93" s="69" t="s">
         <v>612</v>
       </c>
-      <c r="B93" s="59"/>
-      <c r="C93" s="59"/>
-      <c r="D93" s="60"/>
-      <c r="E93" s="58" t="s">
+      <c r="F93" s="70"/>
+      <c r="G93" s="70"/>
+      <c r="H93" s="71"/>
+      <c r="I93" s="69" t="s">
         <v>613</v>
       </c>
-      <c r="F93" s="59"/>
-      <c r="G93" s="59"/>
-      <c r="H93" s="60"/>
-      <c r="I93" s="58" t="s">
+      <c r="J93" s="70"/>
+      <c r="K93" s="70"/>
+      <c r="L93" s="71"/>
+      <c r="M93" s="69" t="s">
         <v>614</v>
       </c>
-      <c r="J93" s="59"/>
-      <c r="K93" s="59"/>
-      <c r="L93" s="60"/>
-      <c r="M93" s="58" t="s">
-        <v>615</v>
-      </c>
-      <c r="N93" s="59"/>
-      <c r="O93" s="59"/>
-      <c r="P93" s="60"/>
+      <c r="N93" s="70"/>
+      <c r="O93" s="70"/>
+      <c r="P93" s="71"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A94" s="19" t="s">
@@ -18070,30 +18105,30 @@
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A97" s="58" t="s">
+      <c r="A97" s="69" t="s">
+        <v>615</v>
+      </c>
+      <c r="B97" s="70"/>
+      <c r="C97" s="70"/>
+      <c r="D97" s="71"/>
+      <c r="E97" s="69" t="s">
         <v>616</v>
       </c>
-      <c r="B97" s="59"/>
-      <c r="C97" s="59"/>
-      <c r="D97" s="60"/>
-      <c r="E97" s="58" t="s">
+      <c r="F97" s="70"/>
+      <c r="G97" s="70"/>
+      <c r="H97" s="71"/>
+      <c r="I97" s="69" t="s">
         <v>617</v>
       </c>
-      <c r="F97" s="59"/>
-      <c r="G97" s="59"/>
-      <c r="H97" s="60"/>
-      <c r="I97" s="58" t="s">
+      <c r="J97" s="70"/>
+      <c r="K97" s="70"/>
+      <c r="L97" s="71"/>
+      <c r="M97" s="69" t="s">
         <v>618</v>
       </c>
-      <c r="J97" s="59"/>
-      <c r="K97" s="59"/>
-      <c r="L97" s="60"/>
-      <c r="M97" s="58" t="s">
-        <v>619</v>
-      </c>
-      <c r="N97" s="59"/>
-      <c r="O97" s="59"/>
-      <c r="P97" s="60"/>
+      <c r="N97" s="70"/>
+      <c r="O97" s="70"/>
+      <c r="P97" s="71"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A98" s="19" t="s">
@@ -18243,574 +18278,574 @@
   <sheetData>
     <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64" s="20" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A95" s="20" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
+        <v>627</v>
+      </c>
+      <c r="Z97" t="s">
         <v>628</v>
-      </c>
-      <c r="Z97" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
+        <v>629</v>
+      </c>
+      <c r="Z98" t="s">
         <v>630</v>
-      </c>
-      <c r="Z98" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
+        <v>631</v>
+      </c>
+      <c r="Z99" t="s">
         <v>632</v>
-      </c>
-      <c r="Z99" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
+        <v>633</v>
+      </c>
+      <c r="Z100" t="s">
         <v>634</v>
-      </c>
-      <c r="Z100" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
+        <v>635</v>
+      </c>
+      <c r="Z101" t="s">
         <v>636</v>
-      </c>
-      <c r="Z101" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
+        <v>637</v>
+      </c>
+      <c r="Z102" t="s">
         <v>638</v>
-      </c>
-      <c r="Z102" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
+        <v>639</v>
+      </c>
+      <c r="Z103" t="s">
         <v>640</v>
-      </c>
-      <c r="Z103" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z104" t="s">
         <v>642</v>
-      </c>
-      <c r="Z104" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A159" s="20" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A224" s="20" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A279" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A341" s="21" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A347" s="21" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A360" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A362" s="21" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A363" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A364" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A366" s="21" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A367" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A368" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="370" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A370" s="21" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="371" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A371" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="372" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A372" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="374" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A374" s="21" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="375" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A375" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="376" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A376" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="378" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A378" s="21" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="379" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A379" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="380" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A380" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="384" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A384" t="s">
+        <v>715</v>
+      </c>
+      <c r="P384" t="s">
         <v>716</v>
       </c>
-      <c r="P384" t="s">
+      <c r="AE384" t="s">
         <v>717</v>
       </c>
-      <c r="AE384" t="s">
+      <c r="AT384" t="s">
         <v>718</v>
-      </c>
-      <c r="AT384" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="385" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A385" t="s">
+        <v>719</v>
+      </c>
+      <c r="P385" t="s">
         <v>720</v>
       </c>
-      <c r="P385" t="s">
+      <c r="AE385" t="s">
         <v>721</v>
       </c>
-      <c r="AE385" t="s">
+      <c r="AT385" t="s">
         <v>722</v>
-      </c>
-      <c r="AT385" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A411" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A412" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A413" s="22" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A414" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A415" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A416" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A417" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A418" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A419" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A420" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A421" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
   </sheetData>
@@ -18838,16 +18873,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A1" s="69" t="s">
-        <v>771</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="71"/>
+      <c r="A1" s="80" t="s">
+        <v>769</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="82"/>
     </row>
     <row r="2" spans="1:19" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -18859,19 +18894,19 @@
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="74" t="s">
-        <v>772</v>
-      </c>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
+      <c r="G2" s="83" t="s">
+        <v>770</v>
+      </c>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A3" s="75" t="s">
-        <v>773</v>
+      <c r="A3" s="26" t="s">
+        <v>771</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>25</v>
@@ -18882,16 +18917,16 @@
       <c r="D3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="25" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="47.25" x14ac:dyDescent="0.45">
-      <c r="A4" s="75">
+      <c r="A4" s="26">
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -18899,16 +18934,16 @@
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="76" t="s">
-        <v>775</v>
+      <c r="E4" s="27" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="47.25" x14ac:dyDescent="0.45">
-      <c r="A5" s="75">
+      <c r="A5" s="26">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -18916,16 +18951,16 @@
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="76" t="s">
-        <v>777</v>
+      <c r="E5" s="27" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="47.25" x14ac:dyDescent="0.45">
-      <c r="A6" s="75">
+      <c r="A6" s="26">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -18933,16 +18968,16 @@
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="76" t="s">
-        <v>779</v>
+      <c r="E6" s="27" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="47.25" x14ac:dyDescent="0.45">
-      <c r="A7" s="75">
+      <c r="A7" s="26">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -18950,16 +18985,16 @@
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="76" t="s">
-        <v>781</v>
+      <c r="E7" s="27" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="47.25" x14ac:dyDescent="0.45">
-      <c r="A8" s="75">
+      <c r="A8" s="26">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -18967,16 +19002,16 @@
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="76" t="s">
-        <v>783</v>
+      <c r="E8" s="27" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="47.25" x14ac:dyDescent="0.45">
-      <c r="A9" s="75">
+      <c r="A9" s="26">
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -18984,16 +19019,16 @@
       <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="76" t="s">
-        <v>785</v>
+      <c r="E9" s="27" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="47.25" x14ac:dyDescent="0.45">
-      <c r="A10" s="75">
+      <c r="A10" s="26">
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -19001,16 +19036,16 @@
       <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="76" t="s">
-        <v>787</v>
+      <c r="E10" s="27" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="47.25" x14ac:dyDescent="0.45">
-      <c r="A11" s="75">
+      <c r="A11" s="26">
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -19018,54 +19053,54 @@
       <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="76" t="s">
+      <c r="E11" s="27" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="47.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="28">
+        <v>0</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>788</v>
+      </c>
+      <c r="C12" s="29">
+        <v>0</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="30" t="s">
         <v>789</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="47.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="77">
-        <v>0</v>
-      </c>
-      <c r="B12" s="78" t="s">
-        <v>790</v>
-      </c>
-      <c r="C12" s="78">
-        <v>0</v>
-      </c>
-      <c r="D12" s="78" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="79" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="14" spans="1:19" ht="16.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="69" t="s">
-        <v>792</v>
-      </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="71"/>
-      <c r="G14" s="80" t="s">
-        <v>793</v>
-      </c>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="80"/>
-      <c r="O14" s="80"/>
-      <c r="P14" s="80"/>
-      <c r="Q14" s="80"/>
-      <c r="R14" s="80"/>
-      <c r="S14" s="80"/>
+      <c r="A14" s="80" t="s">
+        <v>790</v>
+      </c>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="82"/>
+      <c r="G14" s="84" t="s">
+        <v>791</v>
+      </c>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="84"/>
+      <c r="O14" s="84"/>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="84"/>
+      <c r="S14" s="84"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -19077,26 +19112,26 @@
       <c r="D15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="73" t="s">
+      <c r="E15" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="80"/>
-      <c r="P15" s="80"/>
-      <c r="Q15" s="80"/>
-      <c r="R15" s="80"/>
-      <c r="S15" s="80"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="84"/>
+      <c r="O15" s="84"/>
+      <c r="P15" s="84"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="84"/>
+      <c r="S15" s="84"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A16" s="75" t="s">
-        <v>794</v>
+      <c r="A16" s="26" t="s">
+        <v>792</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>25</v>
@@ -19107,29 +19142,29 @@
       <c r="D16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="73" t="s">
+      <c r="E16" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="80"/>
-      <c r="O16" s="80"/>
-      <c r="P16" s="80"/>
-      <c r="Q16" s="80"/>
-      <c r="R16" s="80"/>
-      <c r="S16" s="80"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="84"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="84"/>
+      <c r="R16" s="84"/>
+      <c r="S16" s="84"/>
     </row>
     <row r="17" spans="1:19" ht="47.25" x14ac:dyDescent="0.45">
-      <c r="A17" s="75">
+      <c r="A17" s="26">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -19138,28 +19173,28 @@
         <v>9</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>796</v>
-      </c>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="80"/>
-      <c r="O17" s="80"/>
-      <c r="P17" s="80"/>
-      <c r="Q17" s="80"/>
-      <c r="R17" s="80"/>
-      <c r="S17" s="80"/>
+        <v>794</v>
+      </c>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="84"/>
+      <c r="Q17" s="84"/>
+      <c r="R17" s="84"/>
+      <c r="S17" s="84"/>
     </row>
     <row r="18" spans="1:19" ht="173.25" x14ac:dyDescent="0.45">
-      <c r="A18" s="75">
+      <c r="A18" s="26">
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -19168,28 +19203,28 @@
         <v>9</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>798</v>
-      </c>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="80"/>
-      <c r="N18" s="80"/>
-      <c r="O18" s="80"/>
-      <c r="P18" s="80"/>
-      <c r="Q18" s="80"/>
-      <c r="R18" s="80"/>
-      <c r="S18" s="80"/>
+        <v>796</v>
+      </c>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="84"/>
+      <c r="O18" s="84"/>
+      <c r="P18" s="84"/>
+      <c r="Q18" s="84"/>
+      <c r="R18" s="84"/>
+      <c r="S18" s="84"/>
     </row>
     <row r="19" spans="1:19" ht="141.75" x14ac:dyDescent="0.45">
-      <c r="A19" s="75">
+      <c r="A19" s="26">
         <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
@@ -19198,15 +19233,15 @@
         <v>9</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="47.25" x14ac:dyDescent="0.45">
-      <c r="A20" s="75">
+      <c r="A20" s="26">
         <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
@@ -19215,15 +19250,15 @@
         <v>9</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="110.25" x14ac:dyDescent="0.45">
-      <c r="A21" s="75">
+      <c r="A21" s="26">
         <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
@@ -19232,15 +19267,15 @@
         <v>9</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="47.25" x14ac:dyDescent="0.45">
-      <c r="A22" s="75">
+      <c r="A22" s="26">
         <v>8</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
@@ -19249,11 +19284,11 @@
         <v>9</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A23" s="81" t="s">
+      <c r="A23" s="31" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -19270,36 +19305,36 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="110.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="77" t="s">
+      <c r="A24" s="28" t="s">
+        <v>805</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>806</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="32" t="s">
         <v>807</v>
       </c>
-      <c r="B24" s="78" t="s">
+    </row>
+    <row r="26" spans="1:19" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A26" s="85" t="s">
         <v>808</v>
       </c>
-      <c r="C24" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="78" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="82" t="s">
+      <c r="B26" s="85"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="G26" s="86" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A26" s="83" t="s">
-        <v>810</v>
-      </c>
-      <c r="B26" s="83"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="83"/>
-      <c r="G26" s="84" t="s">
-        <v>811</v>
-      </c>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="84"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="86"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
@@ -19340,7 +19375,7 @@
         <v>15</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
@@ -19348,13 +19383,13 @@
       <c r="D29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="85" t="s">
-        <v>813</v>
+      <c r="E29" s="33" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A30" s="4" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>25</v>
@@ -19371,29 +19406,29 @@
     </row>
     <row r="31" spans="1:19" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="D31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="33" t="s">
         <v>816</v>
       </c>
-      <c r="C31" s="1" t="s">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A33" s="85" t="s">
         <v>817</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="85" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A33" s="83" t="s">
-        <v>819</v>
-      </c>
-      <c r="B33" s="83"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="83"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
@@ -19434,7 +19469,7 @@
         <v>15</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C36" s="1">
         <v>0</v>
@@ -19443,12 +19478,12 @@
         <v>9</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>25</v>
@@ -19468,7 +19503,7 @@
         <v>152</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>12</v>
@@ -19476,18 +19511,18 @@
       <c r="D38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="86" t="s">
-        <v>824</v>
+      <c r="E38" s="34" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A40" s="83" t="s">
-        <v>825</v>
-      </c>
-      <c r="B40" s="83"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="83"/>
+      <c r="A40" s="85" t="s">
+        <v>823</v>
+      </c>
+      <c r="B40" s="85"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
@@ -19525,7 +19560,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>121</v>
@@ -19534,10 +19569,10 @@
         <v>122</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.45">
@@ -19554,17 +19589,17 @@
         <v>9</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A46" s="83" t="s">
-        <v>829</v>
-      </c>
-      <c r="B46" s="83"/>
-      <c r="C46" s="83"/>
-      <c r="D46" s="83"/>
-      <c r="E46" s="83"/>
+      <c r="A46" s="85" t="s">
+        <v>827</v>
+      </c>
+      <c r="B46" s="85"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
     </row>
     <row r="47" spans="1:10" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
@@ -19582,16 +19617,16 @@
       <c r="E47" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G47" s="84" t="s">
-        <v>830</v>
-      </c>
-      <c r="H47" s="84"/>
-      <c r="I47" s="84"/>
-      <c r="J47" s="84"/>
+      <c r="G47" s="86" t="s">
+        <v>828</v>
+      </c>
+      <c r="H47" s="86"/>
+      <c r="I47" s="86"/>
+      <c r="J47" s="86"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>25</v>
@@ -19611,16 +19646,16 @@
         <v>12</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C49" s="1">
         <v>0</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="110.25" x14ac:dyDescent="0.45">
@@ -19628,16 +19663,16 @@
         <v>11</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C50" s="1">
         <v>0</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="63" x14ac:dyDescent="0.45">
@@ -19645,16 +19680,16 @@
         <v>10</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C51" s="1">
         <v>0</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="78.75" x14ac:dyDescent="0.45">
@@ -19662,16 +19697,16 @@
         <v>9</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C52" s="1">
         <v>0</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="78.75" x14ac:dyDescent="0.45">
@@ -19679,16 +19714,16 @@
         <v>8</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C53" s="1">
         <v>0</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="20.25" x14ac:dyDescent="0.45">
@@ -19707,28 +19742,28 @@
       <c r="E54" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G54" s="84" t="s">
-        <v>844</v>
-      </c>
-      <c r="H54" s="84"/>
-      <c r="I54" s="84"/>
-      <c r="J54" s="84"/>
+      <c r="G54" s="86" t="s">
+        <v>842</v>
+      </c>
+      <c r="H54" s="86"/>
+      <c r="I54" s="86"/>
+      <c r="J54" s="86"/>
     </row>
     <row r="55" spans="1:10" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A55" s="2">
         <v>6</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C55" s="1">
         <v>0</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="47.25" x14ac:dyDescent="0.45">
@@ -19736,16 +19771,16 @@
         <v>5</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C56" s="1">
         <v>0</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="47.25" x14ac:dyDescent="0.45">
@@ -19753,16 +19788,16 @@
         <v>4</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C57" s="1">
         <v>0</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="78.75" x14ac:dyDescent="0.45">
@@ -19770,16 +19805,16 @@
         <v>3</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C58" s="1">
         <v>0</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="47.25" x14ac:dyDescent="0.45">
@@ -19787,16 +19822,16 @@
         <v>2</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C59" s="1">
         <v>0</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="110.25" x14ac:dyDescent="0.45">
@@ -19804,16 +19839,16 @@
         <v>1</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C60" s="1">
         <v>0</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="47.25" x14ac:dyDescent="0.45">
@@ -19821,26 +19856,26 @@
         <v>0</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C61" s="1">
         <v>0</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A63" s="83" t="s">
-        <v>859</v>
-      </c>
-      <c r="B63" s="83"/>
-      <c r="C63" s="83"/>
-      <c r="D63" s="83"/>
-      <c r="E63" s="83"/>
+      <c r="A63" s="85" t="s">
+        <v>857</v>
+      </c>
+      <c r="B63" s="85"/>
+      <c r="C63" s="85"/>
+      <c r="D63" s="85"/>
+      <c r="E63" s="85"/>
     </row>
     <row r="64" spans="1:10" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
@@ -19858,12 +19893,12 @@
       <c r="E64" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G64" s="84" t="s">
-        <v>860</v>
-      </c>
-      <c r="H64" s="84"/>
-      <c r="I64" s="84"/>
-      <c r="J64" s="84"/>
+      <c r="G64" s="86" t="s">
+        <v>858</v>
+      </c>
+      <c r="H64" s="86"/>
+      <c r="I64" s="86"/>
+      <c r="J64" s="86"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
@@ -19887,16 +19922,16 @@
         <v>4</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C66" s="1">
         <v>0</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="47.25" x14ac:dyDescent="0.45">
@@ -19904,16 +19939,16 @@
         <v>3</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C67" s="1">
         <v>0</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="47.25" x14ac:dyDescent="0.45">
@@ -19921,16 +19956,16 @@
         <v>2</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C68" s="1">
         <v>0</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="47.25" x14ac:dyDescent="0.45">
@@ -19938,16 +19973,16 @@
         <v>1</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C69" s="1">
         <v>0</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="47.25" x14ac:dyDescent="0.45">
@@ -19955,26 +19990,26 @@
         <v>0</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C70" s="1">
         <v>0</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A72" s="83" t="s">
-        <v>871</v>
-      </c>
-      <c r="B72" s="83"/>
-      <c r="C72" s="83"/>
-      <c r="D72" s="83"/>
-      <c r="E72" s="83"/>
+      <c r="A72" s="85" t="s">
+        <v>869</v>
+      </c>
+      <c r="B72" s="85"/>
+      <c r="C72" s="85"/>
+      <c r="D72" s="85"/>
+      <c r="E72" s="85"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
@@ -20015,7 +20050,7 @@
         <v>0.63472222222222219</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>12</v>
@@ -20024,7 +20059,7 @@
         <v>9</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.45">
@@ -20046,10 +20081,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77" s="4" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>12</v>
@@ -20058,7 +20093,7 @@
         <v>9</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
   </sheetData>
@@ -20114,13 +20149,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="56" t="s">
-        <v>372</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
+      <c r="A1" s="67" t="s">
+        <v>371</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -20158,10 +20193,10 @@
     </row>
     <row r="4" spans="1:5" ht="143.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -20170,15 +20205,15 @@
         <v>9</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="126" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -20187,15 +20222,15 @@
         <v>9</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="126" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -20204,7 +20239,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="126" x14ac:dyDescent="0.45">
@@ -20212,7 +20247,7 @@
         <v>139</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -20221,17 +20256,17 @@
         <v>9</v>
       </c>
       <c r="E7" s="11" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="67" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="56" t="s">
-        <v>384</v>
-      </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
@@ -20269,10 +20304,10 @@
     </row>
     <row r="12" spans="1:5" ht="126" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
@@ -20281,15 +20316,15 @@
         <v>9</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="126" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
@@ -20298,15 +20333,15 @@
         <v>9</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="126" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -20315,7 +20350,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="126" x14ac:dyDescent="0.45">
@@ -20323,7 +20358,7 @@
         <v>139</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>12</v>
@@ -20332,17 +20367,17 @@
         <v>9</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="56" t="s">
-        <v>392</v>
-      </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
+      <c r="A17" s="67" t="s">
+        <v>391</v>
+      </c>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
@@ -20380,10 +20415,10 @@
     </row>
     <row r="20" spans="1:5" ht="126" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>12</v>
@@ -20392,15 +20427,15 @@
         <v>9</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="126" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>12</v>
@@ -20409,15 +20444,15 @@
         <v>9</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="126" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>12</v>
@@ -20426,7 +20461,7 @@
         <v>9</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="126" x14ac:dyDescent="0.45">
@@ -20434,7 +20469,7 @@
         <v>139</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>12</v>
@@ -20443,17 +20478,17 @@
         <v>9</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25" s="56" t="s">
-        <v>402</v>
-      </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
+      <c r="A25" s="67" t="s">
+        <v>401</v>
+      </c>
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
@@ -20491,10 +20526,10 @@
     </row>
     <row r="28" spans="1:5" ht="126" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>12</v>
@@ -20503,15 +20538,15 @@
         <v>9</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="126" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>12</v>
@@ -20520,15 +20555,15 @@
         <v>9</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="126" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>12</v>
@@ -20537,7 +20572,7 @@
         <v>9</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="126" x14ac:dyDescent="0.45">
@@ -20545,7 +20580,7 @@
         <v>139</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>12</v>
@@ -20554,7 +20589,7 @@
         <v>9</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -20588,13 +20623,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="56" t="s">
-        <v>348</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
+      <c r="A1" s="67" t="s">
+        <v>347</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -20615,7 +20650,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>25</v>
@@ -20632,10 +20667,10 @@
     </row>
     <row r="4" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -20644,17 +20679,17 @@
         <v>9</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="56" t="s">
-        <v>352</v>
-      </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
+      <c r="A6" s="67" t="s">
+        <v>351</v>
+      </c>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
@@ -20675,7 +20710,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>25</v>
@@ -20692,10 +20727,10 @@
     </row>
     <row r="9" spans="1:5" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -20704,17 +20739,17 @@
         <v>9</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="56" t="s">
-        <v>356</v>
-      </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
+      <c r="A11" s="67" t="s">
+        <v>355</v>
+      </c>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
@@ -20735,7 +20770,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>25</v>
@@ -20752,10 +20787,10 @@
     </row>
     <row r="14" spans="1:5" ht="63" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -20764,17 +20799,17 @@
         <v>9</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="56" t="s">
-        <v>357</v>
-      </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
+      <c r="A16" s="67" t="s">
+        <v>356</v>
+      </c>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
@@ -20795,7 +20830,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>25</v>
@@ -20812,10 +20847,10 @@
     </row>
     <row r="19" spans="1:5" ht="63" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>12</v>
@@ -20824,17 +20859,17 @@
         <v>9</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" s="56" t="s">
-        <v>358</v>
-      </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
+      <c r="A21" s="67" t="s">
+        <v>357</v>
+      </c>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
@@ -20855,7 +20890,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>25</v>
@@ -20872,10 +20907,10 @@
     </row>
     <row r="24" spans="1:5" ht="141.75" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>12</v>
@@ -20884,17 +20919,17 @@
         <v>9</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" s="56" t="s">
-        <v>364</v>
-      </c>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
+      <c r="A26" s="67" t="s">
+        <v>363</v>
+      </c>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
@@ -20915,7 +20950,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>25</v>
@@ -20932,29 +20967,29 @@
     </row>
     <row r="29" spans="1:5" ht="63" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E31" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="50" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E50" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -20990,13 +21025,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -21131,17 +21166,17 @@
         <v>9</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
@@ -21270,13 +21305,13 @@
       <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
     </row>
     <row r="21" spans="1:16" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="9" t="s">
@@ -21348,18 +21383,18 @@
       <c r="E23" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="G23" s="57" t="s">
+      <c r="G23" s="68" t="s">
         <v>133</v>
       </c>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="57"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="68"/>
     </row>
     <row r="24" spans="1:16" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
@@ -21377,16 +21412,16 @@
       <c r="E24" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="68"/>
     </row>
     <row r="25" spans="1:16" ht="90" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
@@ -21404,18 +21439,18 @@
       <c r="E25" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G25" s="57" t="s">
+      <c r="G25" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="57"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="68"/>
     </row>
     <row r="26" spans="1:16" ht="63" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
@@ -21450,18 +21485,18 @@
       <c r="E27" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G27" s="57" t="s">
+      <c r="G27" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="57"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="68"/>
     </row>
     <row r="28" spans="1:16" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
@@ -21479,16 +21514,16 @@
       <c r="E28" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="68"/>
     </row>
     <row r="29" spans="1:16" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
@@ -21506,25 +21541,25 @@
       <c r="E29" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="57"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="68"/>
+      <c r="P29" s="68"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A31" s="56" t="s">
+      <c r="A31" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32" s="9" t="s">
@@ -21599,13 +21634,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -21812,13 +21847,13 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
@@ -21991,13 +22026,13 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27" s="56" t="s">
+      <c r="A27" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
@@ -22058,13 +22093,13 @@
       <c r="E31" s="8"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A32" s="56" t="s">
+      <c r="A32" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
     </row>
     <row r="33" spans="1:16" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="9" t="s">
@@ -22082,16 +22117,16 @@
       <c r="E33" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
-      <c r="N33" s="57"/>
-      <c r="O33" s="57"/>
-      <c r="P33" s="57"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="68"/>
+      <c r="M33" s="68"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="68"/>
+      <c r="P33" s="68"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
@@ -22109,16 +22144,16 @@
       <c r="E34" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="57"/>
-      <c r="P34" s="57"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="68"/>
+      <c r="M34" s="68"/>
+      <c r="N34" s="68"/>
+      <c r="O34" s="68"/>
+      <c r="P34" s="68"/>
     </row>
     <row r="35" spans="1:16" ht="90" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
@@ -22136,16 +22171,16 @@
       <c r="E35" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="57"/>
-      <c r="O35" s="57"/>
-      <c r="P35" s="57"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="68"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="68"/>
+      <c r="M35" s="68"/>
+      <c r="N35" s="68"/>
+      <c r="O35" s="68"/>
+      <c r="P35" s="68"/>
     </row>
     <row r="36" spans="1:16" ht="63" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
@@ -22180,16 +22215,16 @@
       <c r="E37" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="57"/>
-      <c r="O37" s="57"/>
-      <c r="P37" s="57"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="68"/>
+      <c r="M37" s="68"/>
+      <c r="N37" s="68"/>
+      <c r="O37" s="68"/>
+      <c r="P37" s="68"/>
     </row>
     <row r="38" spans="1:16" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
@@ -22207,16 +22242,16 @@
       <c r="E38" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="57"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="57"/>
-      <c r="M38" s="57"/>
-      <c r="N38" s="57"/>
-      <c r="O38" s="57"/>
-      <c r="P38" s="57"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="68"/>
+      <c r="M38" s="68"/>
+      <c r="N38" s="68"/>
+      <c r="O38" s="68"/>
+      <c r="P38" s="68"/>
     </row>
     <row r="39" spans="1:16" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
@@ -22234,25 +22269,25 @@
       <c r="E39" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="57"/>
-      <c r="M39" s="57"/>
-      <c r="N39" s="57"/>
-      <c r="O39" s="57"/>
-      <c r="P39" s="57"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="68"/>
+      <c r="J39" s="68"/>
+      <c r="K39" s="68"/>
+      <c r="L39" s="68"/>
+      <c r="M39" s="68"/>
+      <c r="N39" s="68"/>
+      <c r="O39" s="68"/>
+      <c r="P39" s="68"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A41" s="56" t="s">
+      <c r="A41" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="B41" s="56"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A42" s="9" t="s">
@@ -22336,13 +22371,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -22396,13 +22431,13 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
@@ -22456,13 +22491,13 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
@@ -22516,13 +22551,13 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="67" t="s">
         <v>150</v>
       </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
@@ -22576,13 +22611,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="67" t="s">
         <v>155</v>
       </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
@@ -22664,13 +22699,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
@@ -22724,13 +22759,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
@@ -22767,13 +22802,13 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="67" t="s">
         <v>162</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
@@ -22810,13 +22845,13 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="67" t="s">
         <v>167</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
@@ -22886,7 +22921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD611585-DC7D-4CEB-83DC-ED06A32FCC38}">
   <dimension ref="A2:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
@@ -22899,13 +22934,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
@@ -22942,13 +22977,13 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="67" t="s">
         <v>174</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
@@ -22985,13 +23020,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="67" t="s">
         <v>177</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
@@ -23045,13 +23080,13 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="67" t="s">
         <v>181</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
@@ -23105,13 +23140,13 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="67" t="s">
         <v>187</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
@@ -23165,13 +23200,13 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="67" t="s">
         <v>188</v>
       </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
@@ -23225,13 +23260,13 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
@@ -23285,13 +23320,13 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A35" s="56" t="s">
+      <c r="A35" s="67" t="s">
         <v>196</v>
       </c>
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
@@ -23345,13 +23380,13 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A40" s="56" t="s">
+      <c r="A40" s="67" t="s">
         <v>199</v>
       </c>
-      <c r="B40" s="56"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
@@ -23438,13 +23473,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="67" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
@@ -23481,13 +23516,13 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="67" t="s">
         <v>207</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
@@ -23524,13 +23559,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="67" t="s">
         <v>208</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
@@ -23567,13 +23602,13 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="67" t="s">
         <v>211</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
@@ -23627,13 +23662,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="67" t="s">
         <v>216</v>
       </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
@@ -23687,13 +23722,13 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="67" t="s">
         <v>219</v>
       </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
@@ -23747,13 +23782,13 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="67" t="s">
         <v>220</v>
       </c>
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
@@ -23807,13 +23842,13 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A34" s="56" t="s">
+      <c r="A34" s="67" t="s">
         <v>223</v>
       </c>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
